--- a/data/aula5.xlsx
+++ b/data/aula5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>familia</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>resp</t>
+  </si>
+  <si>
+    <t>genotipo_b</t>
   </si>
 </sst>
 </file>
@@ -365,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E55" sqref="E8:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +389,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -400,8 +406,11 @@
       <c r="D2" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -414,8 +423,11 @@
       <c r="D3" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -428,8 +440,11 @@
       <c r="D4" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -442,8 +457,11 @@
       <c r="D5" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -456,8 +474,11 @@
       <c r="D6" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -470,8 +491,11 @@
       <c r="D7" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -484,8 +508,11 @@
       <c r="D8" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -498,8 +525,11 @@
       <c r="D9" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -512,8 +542,11 @@
       <c r="D10" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -526,8 +559,11 @@
       <c r="D11" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -540,8 +576,11 @@
       <c r="D12" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -554,8 +593,11 @@
       <c r="D13" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -568,8 +610,11 @@
       <c r="D14" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -582,8 +627,11 @@
       <c r="D15" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -596,8 +644,11 @@
       <c r="D16" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -610,8 +661,11 @@
       <c r="D17" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -624,8 +678,11 @@
       <c r="D18" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -638,8 +695,11 @@
       <c r="D19" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -652,8 +712,11 @@
       <c r="D20" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -666,8 +729,11 @@
       <c r="D21" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -680,8 +746,11 @@
       <c r="D22" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -694,8 +763,11 @@
       <c r="D23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -708,8 +780,11 @@
       <c r="D24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -722,8 +797,11 @@
       <c r="D25" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -736,8 +814,11 @@
       <c r="D26" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -750,8 +831,11 @@
       <c r="D27" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -764,8 +848,11 @@
       <c r="D28" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -778,8 +865,11 @@
       <c r="D29" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -792,8 +882,11 @@
       <c r="D30" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -806,8 +899,11 @@
       <c r="D31" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -820,8 +916,11 @@
       <c r="D32" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -834,8 +933,11 @@
       <c r="D33" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -848,8 +950,11 @@
       <c r="D34" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -862,8 +967,11 @@
       <c r="D35" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -876,8 +984,11 @@
       <c r="D36" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -890,8 +1001,11 @@
       <c r="D37" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -904,8 +1018,11 @@
       <c r="D38" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -918,8 +1035,11 @@
       <c r="D39" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -932,8 +1052,11 @@
       <c r="D40" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -946,8 +1069,11 @@
       <c r="D41" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -960,8 +1086,11 @@
       <c r="D42" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -974,8 +1103,11 @@
       <c r="D43" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -988,8 +1120,11 @@
       <c r="D44" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -1002,8 +1137,11 @@
       <c r="D45" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -1016,8 +1154,11 @@
       <c r="D46" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -1030,8 +1171,11 @@
       <c r="D47" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -1044,8 +1188,11 @@
       <c r="D48" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -1058,8 +1205,11 @@
       <c r="D49" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -1072,8 +1222,11 @@
       <c r="D50" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -1086,8 +1239,11 @@
       <c r="D51" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -1100,8 +1256,11 @@
       <c r="D52" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -1114,8 +1273,11 @@
       <c r="D53" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -1128,8 +1290,11 @@
       <c r="D54" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -1141,6 +1306,9 @@
       </c>
       <c r="D55" s="1">
         <v>98</v>
+      </c>
+      <c r="E55" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/aula5.xlsx
+++ b/data/aula5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\delineamentos22\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>familia</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>resp</t>
-  </si>
-  <si>
-    <t>genotipo_b</t>
   </si>
 </sst>
 </file>
@@ -368,15 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E55" sqref="E8:E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,11 +386,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -406,11 +400,8 @@
       <c r="D2" s="1">
         <v>21</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,11 +414,8 @@
       <c r="D3" s="1">
         <v>21</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -440,11 +428,8 @@
       <c r="D4" s="1">
         <v>41</v>
       </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -457,11 +442,8 @@
       <c r="D5" s="1">
         <v>21</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -474,11 +456,8 @@
       <c r="D6" s="1">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -491,11 +470,8 @@
       <c r="D7" s="1">
         <v>38</v>
       </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -508,11 +484,8 @@
       <c r="D8" s="1">
         <v>31</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -525,11 +498,8 @@
       <c r="D9" s="1">
         <v>23</v>
       </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -542,11 +512,8 @@
       <c r="D10" s="1">
         <v>48</v>
       </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -559,11 +526,8 @@
       <c r="D11" s="1">
         <v>24</v>
       </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -576,11 +540,8 @@
       <c r="D12" s="1">
         <v>24</v>
       </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -593,11 +554,8 @@
       <c r="D13" s="1">
         <v>44</v>
       </c>
-      <c r="E13" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -610,11 +568,8 @@
       <c r="D14" s="1">
         <v>24</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -627,11 +582,8 @@
       <c r="D15" s="1">
         <v>26</v>
       </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -644,11 +596,8 @@
       <c r="D16" s="1">
         <v>44</v>
       </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -661,11 +610,8 @@
       <c r="D17" s="1">
         <v>34</v>
       </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -678,11 +624,8 @@
       <c r="D18" s="1">
         <v>25</v>
       </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -695,11 +638,8 @@
       <c r="D19" s="1">
         <v>56</v>
       </c>
-      <c r="E19" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -712,11 +652,8 @@
       <c r="D20" s="1">
         <v>32</v>
       </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -729,11 +666,8 @@
       <c r="D21" s="1">
         <v>32</v>
       </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -746,11 +680,8 @@
       <c r="D22" s="1">
         <v>35</v>
       </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -763,11 +694,8 @@
       <c r="D23" s="1">
         <v>22</v>
       </c>
-      <c r="E23" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -780,11 +708,8 @@
       <c r="D24" s="1">
         <v>22</v>
       </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -797,11 +722,8 @@
       <c r="D25" s="1">
         <v>39</v>
       </c>
-      <c r="E25" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -814,11 +736,8 @@
       <c r="D26" s="1">
         <v>32</v>
       </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -831,11 +750,8 @@
       <c r="D27" s="1">
         <v>22</v>
       </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -848,11 +764,8 @@
       <c r="D28" s="1">
         <v>54</v>
       </c>
-      <c r="E28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -865,11 +778,8 @@
       <c r="D29" s="1">
         <v>32</v>
       </c>
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -882,11 +792,8 @@
       <c r="D30" s="1">
         <v>32</v>
       </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -899,11 +806,8 @@
       <c r="D31" s="1">
         <v>52</v>
       </c>
-      <c r="E31" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -916,11 +820,8 @@
       <c r="D32" s="1">
         <v>25</v>
       </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -933,11 +834,8 @@
       <c r="D33" s="1">
         <v>22</v>
       </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -950,11 +848,8 @@
       <c r="D34" s="1">
         <v>52</v>
       </c>
-      <c r="E34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -967,11 +862,8 @@
       <c r="D35" s="1">
         <v>35</v>
       </c>
-      <c r="E35" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -984,11 +876,8 @@
       <c r="D36" s="1">
         <v>28</v>
       </c>
-      <c r="E36" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -1001,11 +890,8 @@
       <c r="D37" s="1">
         <v>56</v>
       </c>
-      <c r="E37" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -1018,11 +904,8 @@
       <c r="D38" s="1">
         <v>43</v>
       </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -1035,11 +918,8 @@
       <c r="D39" s="1">
         <v>43</v>
       </c>
-      <c r="E39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -1052,11 +932,8 @@
       <c r="D40" s="1">
         <v>73</v>
       </c>
-      <c r="E40" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -1069,11 +946,8 @@
       <c r="D41" s="1">
         <v>16</v>
       </c>
-      <c r="E41" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -1086,11 +960,8 @@
       <c r="D42" s="1">
         <v>23</v>
       </c>
-      <c r="E42" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -1103,11 +974,8 @@
       <c r="D43" s="1">
         <v>73</v>
       </c>
-      <c r="E43" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -1120,11 +988,8 @@
       <c r="D44" s="1">
         <v>36</v>
       </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -1137,11 +1002,8 @@
       <c r="D45" s="1">
         <v>23</v>
       </c>
-      <c r="E45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -1154,11 +1016,8 @@
       <c r="D46" s="1">
         <v>65</v>
       </c>
-      <c r="E46" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -1171,11 +1030,8 @@
       <c r="D47" s="1">
         <v>41</v>
       </c>
-      <c r="E47" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -1188,11 +1044,8 @@
       <c r="D48" s="1">
         <v>39</v>
       </c>
-      <c r="E48" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -1205,11 +1058,8 @@
       <c r="D49" s="1">
         <v>65</v>
       </c>
-      <c r="E49" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -1222,11 +1072,8 @@
       <c r="D50" s="1">
         <v>24</v>
       </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -1239,11 +1086,8 @@
       <c r="D51" s="1">
         <v>28</v>
       </c>
-      <c r="E51" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -1256,11 +1100,8 @@
       <c r="D52" s="1">
         <v>76</v>
       </c>
-      <c r="E52" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -1273,11 +1114,8 @@
       <c r="D53" s="1">
         <v>43</v>
       </c>
-      <c r="E53" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -1290,11 +1128,8 @@
       <c r="D54" s="1">
         <v>32</v>
       </c>
-      <c r="E54" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -1306,9 +1141,6 @@
       </c>
       <c r="D55" s="1">
         <v>98</v>
-      </c>
-      <c r="E55" s="2">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
